--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\tickets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -209,10 +209,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:N55"/>
+  <dimension ref="A5:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,12 +515,12 @@
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -927,11 +927,16 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="11">
+      <c r="B55" s="10">
         <v>1753306</v>
       </c>
       <c r="C55" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>43172</v>
       </c>
     </row>
   </sheetData>

--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -493,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:N56"/>
+  <dimension ref="A5:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,6 +939,16 @@
         <v>43172</v>
       </c>
     </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>43173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>43174</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D5:G5"/>
